--- a/Config/Excel/界面配置.xlsx
+++ b/Config/Excel/界面配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="18375"/>
   </bookViews>
   <sheets>
     <sheet name="界面配置" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>##var</t>
   </si>
@@ -41,24 +41,24 @@
     <t>_const</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>layer</t>
+  </si>
+  <si>
     <t>resPath</t>
   </si>
   <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>zThickness</t>
+  </si>
+  <si>
     <t>holderType</t>
   </si>
   <si>
-    <t>zThickness</t>
-  </si>
-  <si>
-    <t>coverScreen</t>
-  </si>
-  <si>
-    <t>alwaysInMemory</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -68,15 +68,21 @@
     <t>string</t>
   </si>
   <si>
-    <t>string#path=unity</t>
+    <t>PageType</t>
+  </si>
+  <si>
+    <t>PageLayer</t>
+  </si>
+  <si>
+    <t>string#path=godot</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>int#range=[0,]</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -86,22 +92,22 @@
     <t>常量名</t>
   </si>
   <si>
+    <t>界面类型</t>
+  </si>
+  <si>
+    <t>界面层级</t>
+  </si>
+  <si>
     <t>界面资源路径</t>
   </si>
   <si>
+    <t>可以同时存在多个</t>
+  </si>
+  <si>
+    <t>z轴厚度</t>
+  </si>
+  <si>
     <t>界面 Holder 类型</t>
-  </si>
-  <si>
-    <t>z轴厚度</t>
-  </si>
-  <si>
-    <t>完全覆盖屏幕</t>
-  </si>
-  <si>
-    <t>被覆盖时不销毁</t>
-  </si>
-  <si>
-    <t>可以同时存在多个</t>
   </si>
 </sst>
 </file>
@@ -114,14 +120,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,133 +593,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -728,7 +727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1274,19 +1273,18 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="73.5" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="26.125" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
-    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="4" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="52" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="26.125" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1338,53 +1336,55 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="4:5">
+    <row r="9" spans="4:7">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
